--- a/Dataset/数据文件.xlsx
+++ b/Dataset/数据文件.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Yunnan Uni\数学建模\实验\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Yunnan Uni\数学建模\Jianmo_lesson\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DA171B-CAC2-4D6E-8FCB-65E74A37A119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39CA030-6B0B-4A40-A0EC-B2B8DF6B109F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="420" windowWidth="21600" windowHeight="11180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="土豆" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +121,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,7 +409,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D12" sqref="D3:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -416,18 +419,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -459,8 +462,8 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
+      <c r="D3" s="3">
+        <v>33.46</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -479,8 +482,8 @@
       <c r="C4" s="2">
         <v>24</v>
       </c>
-      <c r="D4" s="2">
-        <v>47</v>
+      <c r="D4" s="3">
+        <v>32.47</v>
       </c>
       <c r="E4" s="2">
         <v>47</v>
@@ -499,8 +502,8 @@
       <c r="C5" s="2">
         <v>49</v>
       </c>
-      <c r="D5" s="2">
-        <v>93</v>
+      <c r="D5" s="3">
+        <v>36.06</v>
       </c>
       <c r="E5" s="2">
         <v>93</v>
@@ -519,10 +522,10 @@
       <c r="C6" s="2">
         <v>73</v>
       </c>
-      <c r="D6" s="2">
-        <v>140</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="3">
+        <v>37.96</v>
+      </c>
+      <c r="E6" s="3">
         <v>140</v>
       </c>
       <c r="F6" s="2">
@@ -539,10 +542,10 @@
       <c r="C7" s="2">
         <v>98</v>
       </c>
-      <c r="D7" s="2">
-        <v>186</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7" s="3">
+        <v>41.04</v>
+      </c>
+      <c r="E7" s="3">
         <v>186</v>
       </c>
       <c r="F7" s="2">
@@ -559,8 +562,8 @@
       <c r="C8" s="2">
         <v>147</v>
       </c>
-      <c r="D8" s="2">
-        <v>279</v>
+      <c r="D8" s="3">
+        <v>40.090000000000003</v>
       </c>
       <c r="E8" s="2">
         <v>279</v>
@@ -580,7 +583,7 @@
         <v>196</v>
       </c>
       <c r="D9" s="4">
-        <v>372</v>
+        <v>41.26</v>
       </c>
       <c r="E9" s="4">
         <v>372</v>
@@ -599,8 +602,8 @@
       <c r="C10" s="2">
         <v>245</v>
       </c>
-      <c r="D10" s="2">
-        <v>465</v>
+      <c r="D10" s="3">
+        <v>42.17</v>
       </c>
       <c r="E10" s="2">
         <v>465</v>
@@ -620,7 +623,7 @@
         <v>294</v>
       </c>
       <c r="D11" s="2">
-        <v>558</v>
+        <v>40.36</v>
       </c>
       <c r="E11" s="2">
         <v>558</v>
@@ -640,7 +643,7 @@
         <v>342</v>
       </c>
       <c r="D12" s="2">
-        <v>651</v>
+        <v>42.73</v>
       </c>
       <c r="E12" s="2">
         <v>651</v>
@@ -678,7 +681,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -687,18 +690,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
